--- a/inst/extdata/PDexports(multiple_files)/T1_BLCA/240517_BCa_T1_32.xlsx
+++ b/inst/extdata/PDexports(multiple_files)/T1_BLCA/240517_BCa_T1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedma\OneDrive\Έγγραφα\itern\ProtE\inst\extdata\PDexports(multiple_files)\T1_BLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1982ADAD-9D34-4CC6-B622-738899E684BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9F8687-7053-4C15-8B53-A640E52C22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t># AAs</t>
   </si>
@@ -37,9 +37,6 @@
     <t># Unique Peptides</t>
   </si>
   <si>
-    <t>10 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPE1 PE=1 SV=2 - [CH10_HUMAN]</t>
-  </si>
-  <si>
     <t>14-3-3 protein beta/alpha OS=Homo sapiens GN=YWHAB PE=1 SV=3 - [1433B_HUMAN]</t>
   </si>
   <si>
@@ -64,27 +61,15 @@
     <t>15-hydroxyprostaglandin dehydrogenase [NAD(+)] OS=Homo sapiens GN=HPGD PE=1 SV=1 - [PGDH_HUMAN]</t>
   </si>
   <si>
-    <t>2,4-dienoyl-CoA reductase, mitochondrial OS=Homo sapiens GN=DECR1 PE=1 SV=1 - [DECR_HUMAN]</t>
-  </si>
-  <si>
-    <t>40S ribosomal protein SA OS=Homo sapiens GN=RPSA PE=1 SV=4 - [RSSA_HUMAN]</t>
-  </si>
-  <si>
     <t>60 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPD1 PE=1 SV=2 - [CH60_HUMAN]</t>
   </si>
   <si>
-    <t>60S ribosomal protein L13 OS=Homo sapiens GN=RPL13 PE=1 SV=4 - [RL13_HUMAN]</t>
-  </si>
-  <si>
     <t>78 kDa glucose-regulated protein OS=Homo sapiens GN=HSPA5 PE=1 SV=2 - [GRP78_HUMAN]</t>
   </si>
   <si>
     <t>A0M8Q6</t>
   </si>
   <si>
-    <t>ADP-ribosylation factor 3 OS=Homo sapiens GN=ARF3 PE=1 SV=2 - [ARF3_HUMAN]</t>
-  </si>
-  <si>
     <t>ATP synthase subunit alpha, mitochondrial OS=Homo sapiens GN=ATP5A1 PE=1 SV=1 - [ATPA_HUMAN]</t>
   </si>
   <si>
@@ -103,21 +88,9 @@
     <t>Actin, cytoplasmic 1 OS=Homo sapiens GN=ACTB PE=1 SV=1 - [ACTB_HUMAN]</t>
   </si>
   <si>
-    <t>Actin-related protein 3 OS=Homo sapiens GN=ACTR3 PE=1 SV=3 - [ARP3_HUMAN]</t>
-  </si>
-  <si>
-    <t>Adenylyl cyclase-associated protein 1 OS=Homo sapiens GN=CAP1 PE=1 SV=5 - [CAP1_HUMAN]</t>
-  </si>
-  <si>
     <t>Adipogenesis regulatory factor OS=Homo sapiens GN=ADIRF PE=1 SV=1 - [ADIRF_HUMAN]</t>
   </si>
   <si>
-    <t>Alcohol dehydrogenase 1B OS=Homo sapiens GN=ADH1B PE=1 SV=2 - [ADH1B_HUMAN]</t>
-  </si>
-  <si>
-    <t>Alcohol dehydrogenase class-3 OS=Homo sapiens GN=ADH5 PE=1 SV=4 - [ADHX_HUMAN]</t>
-  </si>
-  <si>
     <t>Aldo-keto reductase family 1 member C1 OS=Homo sapiens GN=AKR1C1 PE=1 SV=1 - [AK1C1_HUMAN]</t>
   </si>
   <si>
@@ -133,18 +106,12 @@
     <t>Alpha-actinin-1 OS=Homo sapiens GN=ACTN1 PE=1 SV=2 - [ACTN1_HUMAN]</t>
   </si>
   <si>
-    <t>Alpha-actinin-3 OS=Homo sapiens GN=ACTN3 PE=1 SV=2 - [ACTN3_HUMAN]</t>
-  </si>
-  <si>
     <t>Alpha-actinin-4 OS=Homo sapiens GN=ACTN4 PE=1 SV=2 - [ACTN4_HUMAN]</t>
   </si>
   <si>
     <t>Alpha-enolase OS=Homo sapiens GN=ENO1 PE=1 SV=2 - [ENOA_HUMAN]</t>
   </si>
   <si>
-    <t>Amine oxidase [flavin-containing] A OS=Homo sapiens GN=MAOA PE=1 SV=1 - [AOFA_HUMAN]</t>
-  </si>
-  <si>
     <t>Annexin A1 OS=Homo sapiens GN=ANXA1 PE=1 SV=2 - [ANXA1_HUMAN]</t>
   </si>
   <si>
@@ -166,9 +133,6 @@
     <t>Aspartate aminotransferase, mitochondrial OS=Homo sapiens GN=GOT2 PE=1 SV=3 - [AATM_HUMAN]</t>
   </si>
   <si>
-    <t>B9A064</t>
-  </si>
-  <si>
     <t>Brain acid soluble protein 1 OS=Homo sapiens GN=BASP1 PE=1 SV=2 - [BASP1_HUMAN]</t>
   </si>
   <si>
@@ -190,9 +154,6 @@
     <t>Carbonic anhydrase 2 OS=Homo sapiens GN=CA2 PE=1 SV=2 - [CAH2_HUMAN]</t>
   </si>
   <si>
-    <t>Catalase OS=Homo sapiens GN=CAT PE=1 SV=3 - [CATA_HUMAN]</t>
-  </si>
-  <si>
     <t>Cathepsin D OS=Homo sapiens GN=CTSD PE=1 SV=1 - [CATD_HUMAN]</t>
   </si>
   <si>
@@ -205,9 +166,6 @@
     <t>Clathrin heavy chain 1 OS=Homo sapiens GN=CLTC PE=1 SV=5 - [CLH1_HUMAN]</t>
   </si>
   <si>
-    <t>Clusterin OS=Homo sapiens GN=CLU PE=1 SV=1 - [CLUS_HUMAN]</t>
-  </si>
-  <si>
     <t>Cofilin-1 OS=Homo sapiens GN=CFL1 PE=1 SV=3 - [COF1_HUMAN]</t>
   </si>
   <si>
@@ -262,12 +220,6 @@
     <t>Endoplasmin OS=Homo sapiens GN=HSP90B1 PE=1 SV=1 - [ENPL_HUMAN]</t>
   </si>
   <si>
-    <t>Epiplakin OS=Homo sapiens GN=EPPK1 PE=1 SV=2 - [EPIPL_HUMAN]</t>
-  </si>
-  <si>
-    <t>Eukaryotic initiation factor 4A-I OS=Homo sapiens GN=EIF4A1 PE=1 SV=1 - [IF4A1_HUMAN]</t>
-  </si>
-  <si>
     <t>Ezrin OS=Homo sapiens GN=EZR PE=1 SV=4 - [EZRI_HUMAN]</t>
   </si>
   <si>
@@ -289,15 +241,9 @@
     <t>Filamin-B OS=Homo sapiens GN=FLNB PE=1 SV=2 - [FLNB_HUMAN]</t>
   </si>
   <si>
-    <t>Fructose-1,6-bisphosphatase 1 OS=Homo sapiens GN=FBP1 PE=1 SV=5 - [F16P1_HUMAN]</t>
-  </si>
-  <si>
     <t>Fructose-bisphosphate aldolase A OS=Homo sapiens GN=ALDOA PE=1 SV=2 - [ALDOA_HUMAN]</t>
   </si>
   <si>
-    <t>GTP-binding nuclear protein Ran OS=Homo sapiens GN=RAN PE=1 SV=3 - [RAN_HUMAN]</t>
-  </si>
-  <si>
     <t>Gamma-synuclein OS=Homo sapiens GN=SNCG PE=1 SV=2 - [SYUG_HUMAN]</t>
   </si>
   <si>
@@ -307,12 +253,6 @@
     <t>Glucose-6-phosphate isomerase OS=Homo sapiens GN=GPI PE=1 SV=4 - [G6PI_HUMAN]</t>
   </si>
   <si>
-    <t>Glucosidase 2 subunit beta OS=Homo sapiens GN=PRKCSH PE=1 SV=2 - [GLU2B_HUMAN]</t>
-  </si>
-  <si>
-    <t>Glutamate dehydrogenase 1, mitochondrial OS=Homo sapiens GN=GLUD1 PE=1 SV=2 - [DHE3_HUMAN]</t>
-  </si>
-  <si>
     <t>Glutathione S-transferase P OS=Homo sapiens GN=GSTP1 PE=1 SV=2 - [GSTP1_HUMAN]</t>
   </si>
   <si>
@@ -358,18 +298,12 @@
     <t>Heterogeneous nuclear ribonucleoprotein K OS=Homo sapiens GN=HNRNPK PE=1 SV=1 - [HNRPK_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoprotein M OS=Homo sapiens GN=HNRNPM PE=1 SV=3 - [HNRPM_HUMAN]</t>
-  </si>
-  <si>
     <t>Heterogeneous nuclear ribonucleoprotein U OS=Homo sapiens GN=HNRNPU PE=1 SV=6 - [HNRPU_HUMAN]</t>
   </si>
   <si>
     <t>Heterogeneous nuclear ribonucleoproteins A2/B1 OS=Homo sapiens GN=HNRNPA2B1 PE=1 SV=2 - [ROA2_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoproteins C1/C2 OS=Homo sapiens GN=HNRNPC PE=1 SV=4 - [HNRPC_HUMAN]</t>
-  </si>
-  <si>
     <t>Histone H1.2 OS=Homo sapiens GN=HIST1H1C PE=1 SV=2 - [H12_HUMAN]</t>
   </si>
   <si>
@@ -412,21 +346,12 @@
     <t>Ig kappa chain C region OS=Homo sapiens GN=IGKC PE=1 SV=1 - [IGKC_HUMAN]</t>
   </si>
   <si>
-    <t>Ig kappa chain V-III region SIE OS=Homo sapiens PE=1 SV=1 - [KV302_HUMAN]</t>
-  </si>
-  <si>
     <t>Ig lambda-7 chain C region OS=Homo sapiens GN=IGLC7 PE=4 SV=2 - [LAC7_HUMAN]</t>
   </si>
   <si>
     <t>Ig mu chain C region OS=Homo sapiens GN=IGHM PE=1 SV=3 - [IGHM_HUMAN]</t>
   </si>
   <si>
-    <t>Immunoglobulin lambda-like polypeptide 5 OS=Homo sapiens GN=IGLL5 PE=2 SV=2 - [IGLL5_HUMAN]</t>
-  </si>
-  <si>
-    <t>Integrin beta-1 OS=Homo sapiens GN=ITGB1 PE=1 SV=2 - [ITB1_HUMAN]</t>
-  </si>
-  <si>
     <t>Involucrin OS=Homo sapiens GN=IVL PE=1 SV=2 - [INVO_HUMAN]</t>
   </si>
   <si>
@@ -463,9 +388,6 @@
     <t>L-lactate dehydrogenase B chain OS=Homo sapiens GN=LDHB PE=1 SV=2 - [LDHB_HUMAN]</t>
   </si>
   <si>
-    <t>Lamin-B2 OS=Homo sapiens GN=LMNB2 PE=1 SV=4 - [LMNB2_HUMAN]</t>
-  </si>
-  <si>
     <t>Lumican OS=Homo sapiens GN=LUM PE=1 SV=2 - [LUM_HUMAN]</t>
   </si>
   <si>
@@ -514,12 +436,6 @@
     <t>Nucleolin OS=Homo sapiens GN=NCL PE=1 SV=3 - [NUCL_HUMAN]</t>
   </si>
   <si>
-    <t>Nucleophosmin OS=Homo sapiens GN=NPM1 PE=1 SV=2 - [NPM_HUMAN]</t>
-  </si>
-  <si>
-    <t>Nucleoside diphosphate kinase B OS=Homo sapiens GN=NME2 PE=1 SV=1 - [NDKB_HUMAN]</t>
-  </si>
-  <si>
     <t>O00299</t>
   </si>
   <si>
@@ -544,15 +460,9 @@
     <t>O76070</t>
   </si>
   <si>
-    <t>P00325</t>
-  </si>
-  <si>
     <t>P00338</t>
   </si>
   <si>
-    <t>P00367</t>
-  </si>
-  <si>
     <t>P00450</t>
   </si>
   <si>
@@ -583,9 +493,6 @@
     <t>P01024</t>
   </si>
   <si>
-    <t>P01620</t>
-  </si>
-  <si>
     <t>P01834</t>
   </si>
   <si>
@@ -637,12 +544,6 @@
     <t>P02790</t>
   </si>
   <si>
-    <t>P04004</t>
-  </si>
-  <si>
-    <t>P04040</t>
-  </si>
-  <si>
     <t>P04075</t>
   </si>
   <si>
@@ -655,12 +556,6 @@
     <t>P04792</t>
   </si>
   <si>
-    <t>P05023</t>
-  </si>
-  <si>
-    <t>P05556</t>
-  </si>
-  <si>
     <t>P05783</t>
   </si>
   <si>
@@ -679,9 +574,6 @@
     <t>P06744</t>
   </si>
   <si>
-    <t>P06748</t>
-  </si>
-  <si>
     <t>P06753</t>
   </si>
   <si>
@@ -718,9 +610,6 @@
     <t>P07900</t>
   </si>
   <si>
-    <t>P07910</t>
-  </si>
-  <si>
     <t>P07951</t>
   </si>
   <si>
@@ -742,15 +631,9 @@
     <t>P08758</t>
   </si>
   <si>
-    <t>P08865</t>
-  </si>
-  <si>
     <t>P09211</t>
   </si>
   <si>
-    <t>P09467</t>
-  </si>
-  <si>
     <t>P09493</t>
   </si>
   <si>
@@ -769,18 +652,12 @@
     <t>P10809</t>
   </si>
   <si>
-    <t>P10909</t>
-  </si>
-  <si>
     <t>P11021</t>
   </si>
   <si>
     <t>P11142</t>
   </si>
   <si>
-    <t>P11766</t>
-  </si>
-  <si>
     <t>P12109</t>
   </si>
   <si>
@@ -796,9 +673,6 @@
     <t>P12956</t>
   </si>
   <si>
-    <t>P13489</t>
-  </si>
-  <si>
     <t>P13639</t>
   </si>
   <si>
@@ -811,9 +685,6 @@
     <t>P13647</t>
   </si>
   <si>
-    <t>P14314</t>
-  </si>
-  <si>
     <t>P14618</t>
   </si>
   <si>
@@ -853,18 +724,12 @@
     <t>P21333</t>
   </si>
   <si>
-    <t>P21397</t>
-  </si>
-  <si>
     <t>P21796</t>
   </si>
   <si>
     <t>P22314</t>
   </si>
   <si>
-    <t>P22392</t>
-  </si>
-  <si>
     <t>P22626</t>
   </si>
   <si>
@@ -883,12 +748,6 @@
     <t>P25815</t>
   </si>
   <si>
-    <t>P26373</t>
-  </si>
-  <si>
-    <t>P26447</t>
-  </si>
-  <si>
     <t>P27348</t>
   </si>
   <si>
@@ -925,9 +784,6 @@
     <t>P32119</t>
   </si>
   <si>
-    <t>P35232</t>
-  </si>
-  <si>
     <t>P35579</t>
   </si>
   <si>
@@ -940,9 +796,6 @@
     <t>P37802</t>
   </si>
   <si>
-    <t>P38646</t>
-  </si>
-  <si>
     <t>P40121</t>
   </si>
   <si>
@@ -961,9 +814,6 @@
     <t>P50395</t>
   </si>
   <si>
-    <t>P50990</t>
-  </si>
-  <si>
     <t>P51148</t>
   </si>
   <si>
@@ -973,9 +823,6 @@
     <t>P51888</t>
   </si>
   <si>
-    <t>P52272</t>
-  </si>
-  <si>
     <t>P52565</t>
   </si>
   <si>
@@ -988,9 +835,6 @@
     <t>P55072</t>
   </si>
   <si>
-    <t>P58107</t>
-  </si>
-  <si>
     <t>P60174</t>
   </si>
   <si>
@@ -1000,21 +844,6 @@
     <t>P60709</t>
   </si>
   <si>
-    <t>P60842</t>
-  </si>
-  <si>
-    <t>P61026</t>
-  </si>
-  <si>
-    <t>P61158</t>
-  </si>
-  <si>
-    <t>P61204</t>
-  </si>
-  <si>
-    <t>P61604</t>
-  </si>
-  <si>
     <t>P61978</t>
   </si>
   <si>
@@ -1030,9 +859,6 @@
     <t>P62805</t>
   </si>
   <si>
-    <t>P62826</t>
-  </si>
-  <si>
     <t>P62937</t>
   </si>
   <si>
@@ -1093,12 +919,6 @@
     <t>Plectin OS=Homo sapiens GN=PLEC PE=1 SV=3 - [PLEC_HUMAN]</t>
   </si>
   <si>
-    <t>Poly(rC)-binding protein 1 OS=Homo sapiens GN=PCBP1 PE=1 SV=2 - [PCBP1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Polymerase I and transcript release factor OS=Homo sapiens GN=PTRF PE=1 SV=1 - [PTRF_HUMAN]</t>
-  </si>
-  <si>
     <t>Polyubiquitin-C OS=Homo sapiens GN=UBC PE=1 SV=3 - [UBC_HUMAN]</t>
   </si>
   <si>
@@ -1108,27 +928,18 @@
     <t>Profilin-1 OS=Homo sapiens GN=PFN1 PE=1 SV=2 - [PROF1_HUMAN]</t>
   </si>
   <si>
-    <t>Prohibitin OS=Homo sapiens GN=PHB PE=1 SV=1 - [PHB_HUMAN]</t>
-  </si>
-  <si>
     <t>Prolargin OS=Homo sapiens GN=PRELP PE=1 SV=1 - [PRELP_HUMAN]</t>
   </si>
   <si>
     <t>Protein S100-A11 OS=Homo sapiens GN=S100A11 PE=1 SV=2 - [S10AB_HUMAN]</t>
   </si>
   <si>
-    <t>Protein S100-A4 OS=Homo sapiens GN=S100A4 PE=1 SV=1 - [S10A4_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein S100-P OS=Homo sapiens GN=S100P PE=1 SV=2 - [S100P_HUMAN]</t>
   </si>
   <si>
     <t>Protein disulfide-isomerase A3 OS=Homo sapiens GN=PDIA3 PE=1 SV=4 - [PDIA3_HUMAN]</t>
   </si>
   <si>
-    <t>Protein disulfide-isomerase A6 OS=Homo sapiens GN=PDIA6 PE=1 SV=1 - [PDIA6_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein disulfide-isomerase OS=Homo sapiens GN=P4HB PE=1 SV=3 - [PDIA1_HUMAN]</t>
   </si>
   <si>
@@ -1141,15 +952,9 @@
     <t>Q00839</t>
   </si>
   <si>
-    <t>Q01518</t>
-  </si>
-  <si>
     <t>Q01995</t>
   </si>
   <si>
-    <t>Q03252</t>
-  </si>
-  <si>
     <t>Q04695</t>
   </si>
   <si>
@@ -1165,51 +970,30 @@
     <t>Q06830</t>
   </si>
   <si>
-    <t>Q08043</t>
-  </si>
-  <si>
     <t>Q09666</t>
   </si>
   <si>
     <t>Q13268</t>
   </si>
   <si>
-    <t>Q13813</t>
-  </si>
-  <si>
     <t>Q13938</t>
   </si>
   <si>
     <t>Q14697</t>
   </si>
   <si>
-    <t>Q15084</t>
-  </si>
-  <si>
     <t>Q15149</t>
   </si>
   <si>
-    <t>Q15365</t>
-  </si>
-  <si>
     <t>Q15661</t>
   </si>
   <si>
     <t>Q15847</t>
   </si>
   <si>
-    <t>Q15907</t>
-  </si>
-  <si>
-    <t>Q16698</t>
-  </si>
-  <si>
     <t>Q6NXT2</t>
   </si>
   <si>
-    <t>Q6NZI2</t>
-  </si>
-  <si>
     <t>Q7Z406</t>
   </si>
   <si>
@@ -1237,12 +1021,6 @@
     <t>Ras GTPase-activating-like protein IQGAP1 OS=Homo sapiens GN=IQGAP1 PE=1 SV=1 - [IQGA1_HUMAN]</t>
   </si>
   <si>
-    <t>Ras-related protein Rab-10 OS=Homo sapiens GN=RAB10 PE=1 SV=1 - [RAB10_HUMAN]</t>
-  </si>
-  <si>
-    <t>Ras-related protein Rab-11B OS=Homo sapiens GN=RAB11B PE=1 SV=4 - [RB11B_HUMAN]</t>
-  </si>
-  <si>
     <t>Ras-related protein Rab-1B OS=Homo sapiens GN=RAB1B PE=1 SV=1 - [RAB1B_HUMAN]</t>
   </si>
   <si>
@@ -1252,9 +1030,6 @@
     <t>Rho GDP-dissociation inhibitor 1 OS=Homo sapiens GN=ARHGDIA PE=1 SV=3 - [GDIR1_HUMAN]</t>
   </si>
   <si>
-    <t>Ribonuclease inhibitor OS=Homo sapiens GN=RNH1 PE=1 SV=2 - [RINI_HUMAN]</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -1270,18 +1045,6 @@
     <t>Serum amyloid P-component OS=Homo sapiens GN=APCS PE=1 SV=2 - [SAMP_HUMAN]</t>
   </si>
   <si>
-    <t>Sodium/potassium-transporting ATPase subunit alpha-1 OS=Homo sapiens GN=ATP1A1 PE=1 SV=1 - [AT1A1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Spectrin alpha chain, non-erythrocytic 1 OS=Homo sapiens GN=SPTAN1 PE=1 SV=3 - [SPTN1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Stress-70 protein, mitochondrial OS=Homo sapiens GN=HSPA9 PE=1 SV=2 - [GRP75_HUMAN]</t>
-  </si>
-  <si>
-    <t>T-complex protein 1 subunit theta OS=Homo sapiens GN=CCT8 PE=1 SV=4 - [TCPQ_HUMAN]</t>
-  </si>
-  <si>
     <t>Talin-1 OS=Homo sapiens GN=TLN1 PE=1 SV=3 - [TLN1_HUMAN]</t>
   </si>
   <si>
@@ -1337,9 +1100,6 @@
   </si>
   <si>
     <t>Vinculin OS=Homo sapiens GN=VCL PE=1 SV=4 - [VINC_HUMAN]</t>
-  </si>
-  <si>
-    <t>Vitronectin OS=Homo sapiens GN=VTN PE=1 SV=1 - [VTNC_HUMAN]</t>
   </si>
   <si>
     <t>Voltage-dependent anion-selective channel protein 1 OS=Homo sapiens GN=VDAC1 PE=1 SV=2 - [VDAC1_HUMAN]</t>
@@ -1848,10 +1608,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="N222" sqref="A178:N222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1870,16 +1630,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1894,24 +1654,24 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
       <c r="C2" s="3">
         <v>1450.2332566976499</v>
@@ -1946,10 +1706,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3">
         <v>1170.01131772995</v>
@@ -1984,10 +1744,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3">
         <v>967.43981611728702</v>
@@ -2022,10 +1782,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3">
         <v>916.92593204975105</v>
@@ -2060,10 +1820,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3">
         <v>823.00104057788803</v>
@@ -2098,10 +1858,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>688.77780818939198</v>
@@ -2136,10 +1896,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3">
         <v>588.69708585739102</v>
@@ -2174,10 +1934,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3">
         <v>546.90810191631294</v>
@@ -2212,10 +1972,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>503.61104869842501</v>
@@ -2250,10 +2010,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C11" s="3">
         <v>472.95153820514702</v>
@@ -2288,10 +2048,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>458.73513436317398</v>
@@ -2326,10 +2086,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>452.82619261741598</v>
@@ -2364,10 +2124,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>437</v>
+        <v>358</v>
       </c>
       <c r="C14" s="3">
         <v>427.79943943023699</v>
@@ -2402,10 +2162,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3">
         <v>419.31971299648302</v>
@@ -2440,10 +2200,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3">
         <v>407.51543962955498</v>
@@ -2478,10 +2238,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3">
         <v>390.7592638731</v>
@@ -2516,10 +2276,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="C18" s="3">
         <v>366.58512938022602</v>
@@ -2554,10 +2314,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3">
         <v>313.97239911556198</v>
@@ -2592,10 +2352,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>307.23335444927199</v>
@@ -2630,10 +2390,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
       <c r="C21" s="3">
         <v>295.92849779129</v>
@@ -2668,10 +2428,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3">
         <v>289.133310437202</v>
@@ -2706,10 +2466,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3">
         <v>287.91287398338301</v>
@@ -2744,10 +2504,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3">
         <v>284.144790530205</v>
@@ -2782,10 +2542,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
         <v>268.61696350574499</v>
@@ -2820,10 +2580,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3">
         <v>266.62653112411499</v>
@@ -2858,10 +2618,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3">
         <v>258.65562236309103</v>
@@ -2896,10 +2656,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="C28" s="3">
         <v>249.15468811988799</v>
@@ -2934,10 +2694,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3">
         <v>230.07843542098999</v>
@@ -2972,10 +2732,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C30" s="3">
         <v>227.90199816226999</v>
@@ -3010,10 +2770,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>432</v>
+        <v>353</v>
       </c>
       <c r="C31" s="3">
         <v>226.15934276580799</v>
@@ -3048,10 +2808,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>412</v>
+        <v>337</v>
       </c>
       <c r="C32" s="3">
         <v>224.79708671569799</v>
@@ -3086,10 +2846,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3">
         <v>210.850116491318</v>
@@ -3124,10 +2884,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3">
         <v>209.83728730678601</v>
@@ -3162,10 +2922,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3">
         <v>209.670249342918</v>
@@ -3200,10 +2960,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C36" s="3">
         <v>208.667415738106</v>
@@ -3238,10 +2998,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3">
         <v>205.03668725490601</v>
@@ -3276,10 +3036,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C38" s="3">
         <v>200.66077089309701</v>
@@ -3314,10 +3074,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3">
         <v>198.91979360580399</v>
@@ -3352,10 +3112,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3">
         <v>194.49508857727099</v>
@@ -3390,10 +3150,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>189.14793753623999</v>
@@ -3428,10 +3188,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C42" s="3">
         <v>168.442060470581</v>
@@ -3466,10 +3226,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3">
         <v>167.44881641864799</v>
@@ -3504,10 +3264,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3">
         <v>164.08194267749801</v>
@@ -3542,10 +3302,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C45" s="3">
         <v>163.30312097072601</v>
@@ -3580,10 +3340,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C46" s="3">
         <v>162.52126538753501</v>
@@ -3618,10 +3378,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>433</v>
+        <v>354</v>
       </c>
       <c r="C47" s="3">
         <v>158.38622093200701</v>
@@ -3656,10 +3416,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C48" s="3">
         <v>157.75718808174099</v>
@@ -3694,10 +3454,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3">
         <v>156.11896455287899</v>
@@ -3732,10 +3492,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3">
         <v>156.02562820911399</v>
@@ -3770,10 +3530,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C51" s="3">
         <v>154.22975730895999</v>
@@ -3808,10 +3568,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="3">
         <v>154.110586047173</v>
@@ -3846,10 +3606,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C53" s="3">
         <v>154.07160747051199</v>
@@ -3884,10 +3644,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="C54" s="3">
         <v>153.23225378990199</v>
@@ -3922,10 +3682,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>426</v>
+        <v>347</v>
       </c>
       <c r="C55" s="3">
         <v>151.67976641655</v>
@@ -3960,10 +3720,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3">
         <v>151.30587649345401</v>
@@ -3998,10 +3758,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C57" s="3">
         <v>148.78161239624001</v>
@@ -4036,10 +3796,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C58" s="3">
         <v>147.82614457607301</v>
@@ -4074,10 +3834,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>424</v>
+        <v>345</v>
       </c>
       <c r="C59" s="3">
         <v>146.418182611465</v>
@@ -4112,10 +3872,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C60" s="3">
         <v>145.01930308342</v>
@@ -4150,10 +3910,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C61" s="3">
         <v>145.012752175331</v>
@@ -4188,10 +3948,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="C62" s="3">
         <v>144.774351835251</v>
@@ -4226,10 +3986,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="C63" s="3">
         <v>134.473140835762</v>
@@ -4264,10 +4024,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3">
         <v>134.11543929576899</v>
@@ -4302,10 +4062,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="C65" s="3">
         <v>133.041223406792</v>
@@ -4340,10 +4100,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C66" s="3">
         <v>132.336530447006</v>
@@ -4378,10 +4138,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C67" s="3">
         <v>128.14754307270101</v>
@@ -4416,10 +4176,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C68" s="3">
         <v>121.08181130886101</v>
@@ -4454,10 +4214,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C69" s="3">
         <v>120.932494401932</v>
@@ -4492,10 +4252,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" s="3">
         <v>119.827983498573</v>
@@ -4530,10 +4290,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="C71" s="3">
         <v>119.12105941772499</v>
@@ -4568,10 +4328,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3">
         <v>118.63371181488</v>
@@ -4606,10 +4366,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="C73" s="3">
         <v>116.82626080513</v>
@@ -4644,10 +4404,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C74" s="3">
         <v>116.758907079697</v>
@@ -4682,10 +4442,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C75" s="3">
         <v>115.524813294411</v>
@@ -4720,10 +4480,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3">
         <v>114.13467502594</v>
@@ -4758,10 +4518,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C77" s="3">
         <v>111.884533047676</v>
@@ -4796,10 +4556,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C78" s="3">
         <v>111.195204973221</v>
@@ -4834,10 +4594,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="C79" s="3">
         <v>105.352865219116</v>
@@ -4872,10 +4632,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="C80" s="3">
         <v>104.962031960487</v>
@@ -4910,10 +4670,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="C81" s="3">
         <v>103.004077076912</v>
@@ -4948,10 +4708,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C82" s="3">
         <v>100.801089286804</v>
@@ -4986,10 +4746,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="C83" s="3">
         <v>99.453486919403105</v>
@@ -5024,10 +4784,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C84" s="3">
         <v>99.258803009986906</v>
@@ -5062,10 +4822,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C85" s="3">
         <v>97.929634451866207</v>
@@ -5100,10 +4860,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C86" s="3">
         <v>97.367994308471694</v>
@@ -5138,10 +4898,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="C87" s="3">
         <v>96.385354042053194</v>
@@ -5176,10 +4936,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" s="3">
         <v>96.365068316459698</v>
@@ -5214,10 +4974,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="C89" s="3">
         <v>93.069246530532794</v>
@@ -5252,10 +5012,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="C90" s="3">
         <v>92.814394116401701</v>
@@ -5290,10 +5050,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C91" s="3">
         <v>91.381478667259202</v>
@@ -5328,10 +5088,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C92" s="3">
         <v>91.059540987014799</v>
@@ -5366,10 +5126,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C93" s="3">
         <v>90.2180464267731</v>
@@ -5404,10 +5164,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C94" s="3">
         <v>89.904271364211994</v>
@@ -5442,10 +5202,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>423</v>
+        <v>344</v>
       </c>
       <c r="C95" s="3">
         <v>89.269333004951505</v>
@@ -5480,10 +5240,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="C96" s="3">
         <v>88.665444493293805</v>
@@ -5518,10 +5278,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C97" s="3">
         <v>87.236469388008103</v>
@@ -5556,10 +5316,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="C98" s="3">
         <v>86.902910351753206</v>
@@ -5594,10 +5354,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C99" s="3">
         <v>86.5549507141113</v>
@@ -5632,10 +5392,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C100" s="3">
         <v>83.845397710800199</v>
@@ -5670,10 +5430,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C101" s="3">
         <v>82.844345569610596</v>
@@ -5708,10 +5468,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C102" s="3">
         <v>82.086534380912795</v>
@@ -5746,10 +5506,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="C103" s="3">
         <v>81.362376570701599</v>
@@ -5784,10 +5544,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C104" s="3">
         <v>81.133810758590698</v>
@@ -5822,10 +5582,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="C105" s="3">
         <v>79.842352271080003</v>
@@ -5860,10 +5620,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C106" s="3">
         <v>75.972452998161302</v>
@@ -5898,10 +5658,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="C107" s="3">
         <v>75.651643514633193</v>
@@ -5936,10 +5696,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C108" s="3">
         <v>74.783143281936603</v>
@@ -5974,10 +5734,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C109" s="3">
         <v>74.675962090492206</v>
@@ -6012,10 +5772,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="C110" s="3">
         <v>72.917541503906307</v>
@@ -6050,10 +5810,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C111" s="3">
         <v>72.582596540451107</v>
@@ -6088,10 +5848,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3">
         <v>72.116009593009906</v>
@@ -6126,10 +5886,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C113" s="3">
         <v>72.074262738227802</v>
@@ -6164,10 +5924,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" s="3">
         <v>71.506861567497296</v>
@@ -6202,10 +5962,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C115" s="3">
         <v>71.424794554710402</v>
@@ -6240,10 +6000,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C116" s="3">
         <v>71.1702929735184</v>
@@ -6278,10 +6038,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" s="3">
         <v>71.069913268089294</v>
@@ -6316,10 +6076,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C118" s="3">
         <v>71.000888347625704</v>
@@ -6354,10 +6114,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C119" s="3">
         <v>69.870863556861906</v>
@@ -6392,10 +6152,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C120" s="3">
         <v>67.927815675735502</v>
@@ -6430,10 +6190,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C121" s="3">
         <v>66.912949919700594</v>
@@ -6468,10 +6228,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C122" s="3">
         <v>66.898105978965802</v>
@@ -6506,10 +6266,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="C123" s="3">
         <v>66.208886861801105</v>
@@ -6544,10 +6304,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C124" s="3">
         <v>66.083501100540204</v>
@@ -6582,10 +6342,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="C125" s="3">
         <v>65.377606630325303</v>
@@ -6620,10 +6380,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C126" s="3">
         <v>65.164530515670805</v>
@@ -6658,10 +6418,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C127" s="3">
         <v>65.009658455848694</v>
@@ -6696,10 +6456,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C128" s="3">
         <v>64.470013260841398</v>
@@ -6734,10 +6494,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C129" s="3">
         <v>64.398019075393705</v>
@@ -6772,10 +6532,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C130" s="3">
         <v>62.611399173736601</v>
@@ -6810,10 +6570,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C131" s="3">
         <v>61.9339100122452</v>
@@ -6848,10 +6608,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C132" s="3">
         <v>61.863309979438803</v>
@@ -6886,10 +6646,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C133" s="3">
         <v>61.135845422744801</v>
@@ -6924,10 +6684,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C134" s="3">
         <v>61.052738189697301</v>
@@ -6962,10 +6722,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="C135" s="3">
         <v>56.721744894981398</v>
@@ -7000,10 +6760,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C136" s="3">
         <v>56.243656873703003</v>
@@ -7038,10 +6798,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C137" s="3">
         <v>54.883992314338698</v>
@@ -7076,10 +6836,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C138" s="3">
         <v>54.749080896377599</v>
@@ -7114,10 +6874,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C139" s="3">
         <v>54.674033999443097</v>
@@ -7152,10 +6912,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>442</v>
+        <v>362</v>
       </c>
       <c r="C140" s="3">
         <v>54.458820104598999</v>
@@ -7190,10 +6950,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C141" s="3">
         <v>53.932886481285102</v>
@@ -7228,10 +6988,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="C142" s="3">
         <v>52.394190549850499</v>
@@ -7266,10 +7026,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C143" s="3">
         <v>51.0638103485107</v>
@@ -7304,10 +7064,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C144" s="3">
         <v>50.392081975936897</v>
@@ -7342,10 +7102,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="C145" s="3">
         <v>49.663478374481201</v>
@@ -7380,10 +7140,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="C146" s="3">
         <v>49.296067476272597</v>
@@ -7418,10 +7178,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="C147" s="3">
         <v>48.518628835678101</v>
@@ -7456,10 +7216,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>425</v>
+        <v>346</v>
       </c>
       <c r="C148" s="3">
         <v>47.861922860145597</v>
@@ -7494,10 +7254,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C149" s="3">
         <v>46.991711974144003</v>
@@ -7532,10 +7292,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C150" s="3">
         <v>46.979954838752697</v>
@@ -7570,10 +7330,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C151" s="3">
         <v>46.153443694114699</v>
@@ -7608,10 +7368,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C152" s="3">
         <v>46.029156208038302</v>
@@ -7646,10 +7406,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C153" s="3">
         <v>44.765137910842903</v>
@@ -7684,10 +7444,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C154" s="3">
         <v>44.6296708583832</v>
@@ -7722,10 +7482,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C155" s="3">
         <v>44.515818476676898</v>
@@ -7760,10 +7520,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>428</v>
+        <v>349</v>
       </c>
       <c r="C156" s="3">
         <v>44.3116004467011</v>
@@ -7798,10 +7558,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C157" s="3">
         <v>43.766577959060697</v>
@@ -7836,10 +7596,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C158" s="3">
         <v>43.590940117835999</v>
@@ -7874,10 +7634,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C159" s="3">
         <v>43.460945844650297</v>
@@ -7912,10 +7672,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C160" s="3">
         <v>42.4504778385162</v>
@@ -7950,10 +7710,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>436</v>
+        <v>357</v>
       </c>
       <c r="C161" s="3">
         <v>42.352649331092799</v>
@@ -7988,10 +7748,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C162" s="3">
         <v>42.155145049095204</v>
@@ -8026,10 +7786,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="C163" s="3">
         <v>41.608179807662999</v>
@@ -8064,10 +7824,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C164" s="3">
         <v>41.075680732727101</v>
@@ -8102,10 +7862,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="C165" s="3">
         <v>40.362456560134902</v>
@@ -8140,10 +7900,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="C166" s="3">
         <v>39.999128460884101</v>
@@ -8178,10 +7938,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="C167" s="3">
         <v>39.749758005142198</v>
@@ -8216,10 +7976,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C168" s="3">
         <v>39.432793498039203</v>
@@ -8254,10 +8014,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C169" s="3">
         <v>37.719059944152797</v>
@@ -8292,10 +8052,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C170" s="3">
         <v>37.139172911644003</v>
@@ -8330,10 +8090,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C171" s="3">
         <v>37.0108640193939</v>
@@ -8368,10 +8128,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>420</v>
+        <v>341</v>
       </c>
       <c r="C172" s="3">
         <v>36.700141549110398</v>
@@ -8406,10 +8166,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C173" s="3">
         <v>36.6024813652039</v>
@@ -8444,10 +8204,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="C174" s="3">
         <v>36.392648458480799</v>
@@ -8482,10 +8242,10 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C175" s="3">
         <v>35.901700496673598</v>
@@ -8520,10 +8280,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C176" s="3">
         <v>35.871452093124397</v>
@@ -8558,10 +8318,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="C177" s="3">
         <v>35.712473034858697</v>
@@ -8592,1526 +8352,6 @@
       </c>
       <c r="L177" s="3">
         <v>6.46826171875</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C178" s="3">
-        <v>35.542595863342299</v>
-      </c>
-      <c r="D178" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="E178" s="5">
-        <v>1</v>
-      </c>
-      <c r="F178" s="5">
-        <v>4</v>
-      </c>
-      <c r="G178" s="5">
-        <v>4</v>
-      </c>
-      <c r="H178" s="5">
-        <v>19</v>
-      </c>
-      <c r="I178" s="6">
-        <v>4388102.125</v>
-      </c>
-      <c r="J178" s="5">
-        <v>478</v>
-      </c>
-      <c r="K178" s="7">
-        <v>54.271170044660103</v>
-      </c>
-      <c r="L178" s="3">
-        <v>5.79541015625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="3">
-        <v>34.9231778383255</v>
-      </c>
-      <c r="D179" s="4">
-        <v>16.13</v>
-      </c>
-      <c r="E179" s="5">
-        <v>1</v>
-      </c>
-      <c r="F179" s="5">
-        <v>7</v>
-      </c>
-      <c r="G179" s="5">
-        <v>7</v>
-      </c>
-      <c r="H179" s="5">
-        <v>14</v>
-      </c>
-      <c r="I179" s="6">
-        <v>5113355.53125</v>
-      </c>
-      <c r="J179" s="5">
-        <v>527</v>
-      </c>
-      <c r="K179" s="7">
-        <v>59.718757874660099</v>
-      </c>
-      <c r="L179" s="3">
-        <v>7.38623046875</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C180" s="3">
-        <v>34.3342413902283</v>
-      </c>
-      <c r="D180" s="4">
-        <v>13</v>
-      </c>
-      <c r="E180" s="5">
-        <v>5</v>
-      </c>
-      <c r="F180" s="5">
-        <v>9</v>
-      </c>
-      <c r="G180" s="5">
-        <v>9</v>
-      </c>
-      <c r="H180" s="5">
-        <v>20</v>
-      </c>
-      <c r="I180" s="6">
-        <v>5197631.5625</v>
-      </c>
-      <c r="J180" s="5">
-        <v>1023</v>
-      </c>
-      <c r="K180" s="7">
-        <v>112.82388505466</v>
-      </c>
-      <c r="L180" s="3">
-        <v>5.49072265625</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C181" s="3">
-        <v>33.850307941436803</v>
-      </c>
-      <c r="D181" s="4">
-        <v>27.72</v>
-      </c>
-      <c r="E181" s="5">
-        <v>1</v>
-      </c>
-      <c r="F181" s="5">
-        <v>3</v>
-      </c>
-      <c r="G181" s="5">
-        <v>3</v>
-      </c>
-      <c r="H181" s="5">
-        <v>24</v>
-      </c>
-      <c r="I181" s="6">
-        <v>33282024.463541701</v>
-      </c>
-      <c r="J181" s="5">
-        <v>101</v>
-      </c>
-      <c r="K181" s="7">
-        <v>11.72073264466</v>
-      </c>
-      <c r="L181" s="3">
-        <v>6.11279296875</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C182" s="3">
-        <v>33.834011793136597</v>
-      </c>
-      <c r="D182" s="4">
-        <v>12.56</v>
-      </c>
-      <c r="E182" s="5">
-        <v>3</v>
-      </c>
-      <c r="F182" s="5">
-        <v>4</v>
-      </c>
-      <c r="G182" s="5">
-        <v>4</v>
-      </c>
-      <c r="H182" s="5">
-        <v>11</v>
-      </c>
-      <c r="I182" s="6">
-        <v>7661397.1692708302</v>
-      </c>
-      <c r="J182" s="5">
-        <v>406</v>
-      </c>
-      <c r="K182" s="7">
-        <v>46.124557814660101</v>
-      </c>
-      <c r="L182" s="3">
-        <v>5.47802734375</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C183" s="3">
-        <v>33.705675005912802</v>
-      </c>
-      <c r="D183" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="E183" s="5">
-        <v>1</v>
-      </c>
-      <c r="F183" s="5">
-        <v>10</v>
-      </c>
-      <c r="G183" s="5">
-        <v>10</v>
-      </c>
-      <c r="H183" s="5">
-        <v>15</v>
-      </c>
-      <c r="I183" s="6">
-        <v>3335561.4388020802</v>
-      </c>
-      <c r="J183" s="5">
-        <v>2472</v>
-      </c>
-      <c r="K183" s="7">
-        <v>284.36422309466099</v>
-      </c>
-      <c r="L183" s="3">
-        <v>5.35107421875</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C184" s="3">
-        <v>33.670322418212898</v>
-      </c>
-      <c r="D184" s="4">
-        <v>13.71</v>
-      </c>
-      <c r="E184" s="5">
-        <v>1</v>
-      </c>
-      <c r="F184" s="5">
-        <v>6</v>
-      </c>
-      <c r="G184" s="5">
-        <v>8</v>
-      </c>
-      <c r="H184" s="5">
-        <v>17</v>
-      </c>
-      <c r="I184" s="6">
-        <v>6639875.4583333302</v>
-      </c>
-      <c r="J184" s="5">
-        <v>620</v>
-      </c>
-      <c r="K184" s="7">
-        <v>69.905701464660098</v>
-      </c>
-      <c r="L184" s="3">
-        <v>5.59228515625</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C185" s="3">
-        <v>33.577321767807</v>
-      </c>
-      <c r="D185" s="4">
-        <v>11.93</v>
-      </c>
-      <c r="E185" s="5">
-        <v>1</v>
-      </c>
-      <c r="F185" s="5">
-        <v>6</v>
-      </c>
-      <c r="G185" s="5">
-        <v>6</v>
-      </c>
-      <c r="H185" s="5">
-        <v>14</v>
-      </c>
-      <c r="I185" s="6">
-        <v>6240960.6145833302</v>
-      </c>
-      <c r="J185" s="5">
-        <v>528</v>
-      </c>
-      <c r="K185" s="7">
-        <v>59.387823884660101</v>
-      </c>
-      <c r="L185" s="3">
-        <v>4.41162109375</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" s="3">
-        <v>33.431722164154102</v>
-      </c>
-      <c r="D186" s="4">
-        <v>17.97</v>
-      </c>
-      <c r="E186" s="5">
-        <v>1</v>
-      </c>
-      <c r="F186" s="5">
-        <v>4</v>
-      </c>
-      <c r="G186" s="5">
-        <v>4</v>
-      </c>
-      <c r="H186" s="5">
-        <v>11</v>
-      </c>
-      <c r="I186" s="6">
-        <v>8454826.734375</v>
-      </c>
-      <c r="J186" s="5">
-        <v>295</v>
-      </c>
-      <c r="K186" s="7">
-        <v>32.833434644660002</v>
-      </c>
-      <c r="L186" s="3">
-        <v>4.86865234375</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="3">
-        <v>33.248988866806002</v>
-      </c>
-      <c r="D187" s="4">
-        <v>45.1</v>
-      </c>
-      <c r="E187" s="5">
-        <v>1</v>
-      </c>
-      <c r="F187" s="5">
-        <v>4</v>
-      </c>
-      <c r="G187" s="5">
-        <v>4</v>
-      </c>
-      <c r="H187" s="5">
-        <v>14</v>
-      </c>
-      <c r="I187" s="6">
-        <v>14657958.1145833</v>
-      </c>
-      <c r="J187" s="5">
-        <v>102</v>
-      </c>
-      <c r="K187" s="7">
-        <v>10.92487173466</v>
-      </c>
-      <c r="L187" s="3">
-        <v>8.92431640625</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C188" s="3">
-        <v>32.748884916305499</v>
-      </c>
-      <c r="D188" s="4">
-        <v>18.46</v>
-      </c>
-      <c r="E188" s="5">
-        <v>1</v>
-      </c>
-      <c r="F188" s="5">
-        <v>5</v>
-      </c>
-      <c r="G188" s="5">
-        <v>5</v>
-      </c>
-      <c r="H188" s="5">
-        <v>9</v>
-      </c>
-      <c r="I188" s="6">
-        <v>8791167.4270833302</v>
-      </c>
-      <c r="J188" s="5">
-        <v>390</v>
-      </c>
-      <c r="K188" s="7">
-        <v>43.44982149466</v>
-      </c>
-      <c r="L188" s="3">
-        <v>5.60498046875</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C189" s="3">
-        <v>32.719633817672701</v>
-      </c>
-      <c r="D189" s="4">
-        <v>8.89</v>
-      </c>
-      <c r="E189" s="5">
-        <v>1</v>
-      </c>
-      <c r="F189" s="5">
-        <v>3</v>
-      </c>
-      <c r="G189" s="5">
-        <v>3</v>
-      </c>
-      <c r="H189" s="5">
-        <v>11</v>
-      </c>
-      <c r="I189" s="6">
-        <v>7520728.5963541698</v>
-      </c>
-      <c r="J189" s="5">
-        <v>461</v>
-      </c>
-      <c r="K189" s="7">
-        <v>49.941089664659998</v>
-      </c>
-      <c r="L189" s="3">
-        <v>4.81787109375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C190" s="3">
-        <v>32.242472529411302</v>
-      </c>
-      <c r="D190" s="4">
-        <v>24.17</v>
-      </c>
-      <c r="E190" s="5">
-        <v>1</v>
-      </c>
-      <c r="F190" s="5">
-        <v>5</v>
-      </c>
-      <c r="G190" s="5">
-        <v>5</v>
-      </c>
-      <c r="H190" s="5">
-        <v>12</v>
-      </c>
-      <c r="I190" s="6">
-        <v>8277050.2317708302</v>
-      </c>
-      <c r="J190" s="5">
-        <v>211</v>
-      </c>
-      <c r="K190" s="7">
-        <v>24.24652727466</v>
-      </c>
-      <c r="L190" s="3">
-        <v>11.64892578125</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C191" s="3">
-        <v>32.144429922103903</v>
-      </c>
-      <c r="D191" s="4">
-        <v>20.71</v>
-      </c>
-      <c r="E191" s="5">
-        <v>1</v>
-      </c>
-      <c r="F191" s="5">
-        <v>5</v>
-      </c>
-      <c r="G191" s="5">
-        <v>5</v>
-      </c>
-      <c r="H191" s="5">
-        <v>10</v>
-      </c>
-      <c r="I191" s="6">
-        <v>6379925.0885416698</v>
-      </c>
-      <c r="J191" s="5">
-        <v>338</v>
-      </c>
-      <c r="K191" s="7">
-        <v>36.818796344660001</v>
-      </c>
-      <c r="L191" s="3">
-        <v>6.99072265625</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C192" s="3">
-        <v>31.890007495880099</v>
-      </c>
-      <c r="D192" s="4">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E192" s="5">
-        <v>1</v>
-      </c>
-      <c r="F192" s="5">
-        <v>5</v>
-      </c>
-      <c r="G192" s="5">
-        <v>5</v>
-      </c>
-      <c r="H192" s="5">
-        <v>12</v>
-      </c>
-      <c r="I192" s="6">
-        <v>4467649.609375</v>
-      </c>
-      <c r="J192" s="5">
-        <v>679</v>
-      </c>
-      <c r="K192" s="7">
-        <v>73.634776304660093</v>
-      </c>
-      <c r="L192" s="3">
-        <v>6.16357421875</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C193" s="3">
-        <v>31.792213201522799</v>
-      </c>
-      <c r="D193" s="4">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="E193" s="5">
-        <v>2</v>
-      </c>
-      <c r="F193" s="5">
-        <v>4</v>
-      </c>
-      <c r="G193" s="5">
-        <v>4</v>
-      </c>
-      <c r="H193" s="5">
-        <v>11</v>
-      </c>
-      <c r="I193" s="6">
-        <v>6401864.3645833302</v>
-      </c>
-      <c r="J193" s="5">
-        <v>558</v>
-      </c>
-      <c r="K193" s="7">
-        <v>61.359196134660102</v>
-      </c>
-      <c r="L193" s="3">
-        <v>7.79638671875</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C194" s="3">
-        <v>31.784144878387501</v>
-      </c>
-      <c r="D194" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="E194" s="5">
-        <v>1</v>
-      </c>
-      <c r="F194" s="5">
-        <v>9</v>
-      </c>
-      <c r="G194" s="5">
-        <v>9</v>
-      </c>
-      <c r="H194" s="5">
-        <v>16</v>
-      </c>
-      <c r="I194" s="6">
-        <v>6075187.5208333302</v>
-      </c>
-      <c r="J194" s="5">
-        <v>548</v>
-      </c>
-      <c r="K194" s="7">
-        <v>59.582509034659999</v>
-      </c>
-      <c r="L194" s="3">
-        <v>5.60498046875</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C195" s="3">
-        <v>31.759327411651601</v>
-      </c>
-      <c r="D195" s="4">
-        <v>18.37</v>
-      </c>
-      <c r="E195" s="5">
-        <v>1</v>
-      </c>
-      <c r="F195" s="5">
-        <v>4</v>
-      </c>
-      <c r="G195" s="5">
-        <v>4</v>
-      </c>
-      <c r="H195" s="5">
-        <v>15</v>
-      </c>
-      <c r="I195" s="6">
-        <v>9731810.8177083302</v>
-      </c>
-      <c r="J195" s="5">
-        <v>294</v>
-      </c>
-      <c r="K195" s="7">
-        <v>32.554843324659899</v>
-      </c>
-      <c r="L195" s="3">
-        <v>4.77978515625</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C196" s="3">
-        <v>31.0937707424164</v>
-      </c>
-      <c r="D196" s="4">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="E196" s="5">
-        <v>3</v>
-      </c>
-      <c r="F196" s="5">
-        <v>6</v>
-      </c>
-      <c r="G196" s="5">
-        <v>6</v>
-      </c>
-      <c r="H196" s="5">
-        <v>13</v>
-      </c>
-      <c r="I196" s="6">
-        <v>5505203.625</v>
-      </c>
-      <c r="J196" s="5">
-        <v>418</v>
-      </c>
-      <c r="K196" s="7">
-        <v>47.340983524659997</v>
-      </c>
-      <c r="L196" s="3">
-        <v>5.88427734375</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C197" s="3">
-        <v>30.806182503700299</v>
-      </c>
-      <c r="D197" s="4">
-        <v>19.63</v>
-      </c>
-      <c r="E197" s="5">
-        <v>2</v>
-      </c>
-      <c r="F197" s="5">
-        <v>2</v>
-      </c>
-      <c r="G197" s="5">
-        <v>3</v>
-      </c>
-      <c r="H197" s="5">
-        <v>14</v>
-      </c>
-      <c r="I197" s="6">
-        <v>16026738.5625</v>
-      </c>
-      <c r="J197" s="5">
-        <v>214</v>
-      </c>
-      <c r="K197" s="7">
-        <v>23.048639404660001</v>
-      </c>
-      <c r="L197" s="3">
-        <v>8.83642578125</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C198" s="3">
-        <v>30.780096292495699</v>
-      </c>
-      <c r="D198" s="4">
-        <v>7.77</v>
-      </c>
-      <c r="E198" s="5">
-        <v>1</v>
-      </c>
-      <c r="F198" s="5">
-        <v>1</v>
-      </c>
-      <c r="G198" s="5">
-        <v>4</v>
-      </c>
-      <c r="H198" s="5">
-        <v>12</v>
-      </c>
-      <c r="I198" s="6">
-        <v>10442373.1458333</v>
-      </c>
-      <c r="J198" s="5">
-        <v>901</v>
-      </c>
-      <c r="K198" s="7">
-        <v>103.17606132466</v>
-      </c>
-      <c r="L198" s="3">
-        <v>5.51611328125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C199" s="3">
-        <v>30.744802713394201</v>
-      </c>
-      <c r="D199" s="4">
-        <v>11.47</v>
-      </c>
-      <c r="E199" s="5">
-        <v>3</v>
-      </c>
-      <c r="F199" s="5">
-        <v>4</v>
-      </c>
-      <c r="G199" s="5">
-        <v>4</v>
-      </c>
-      <c r="H199" s="5">
-        <v>15</v>
-      </c>
-      <c r="I199" s="6">
-        <v>7263651.765625</v>
-      </c>
-      <c r="J199" s="5">
-        <v>375</v>
-      </c>
-      <c r="K199" s="7">
-        <v>39.82859849466</v>
-      </c>
-      <c r="L199" s="3">
-        <v>8.29443359375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C200" s="3">
-        <v>30.399228572845502</v>
-      </c>
-      <c r="D200" s="4">
-        <v>17.13</v>
-      </c>
-      <c r="E200" s="5">
-        <v>3</v>
-      </c>
-      <c r="F200" s="5">
-        <v>3</v>
-      </c>
-      <c r="G200" s="5">
-        <v>5</v>
-      </c>
-      <c r="H200" s="5">
-        <v>12</v>
-      </c>
-      <c r="I200" s="6">
-        <v>7456165.1705729198</v>
-      </c>
-      <c r="J200" s="5">
-        <v>356</v>
-      </c>
-      <c r="K200" s="7">
-        <v>37.473945174660003</v>
-      </c>
-      <c r="L200" s="3">
-        <v>7.09326171875</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C201" s="3">
-        <v>30.314947247505199</v>
-      </c>
-      <c r="D201" s="4">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="E201" s="5">
-        <v>1</v>
-      </c>
-      <c r="F201" s="5">
-        <v>7</v>
-      </c>
-      <c r="G201" s="5">
-        <v>7</v>
-      </c>
-      <c r="H201" s="5">
-        <v>13</v>
-      </c>
-      <c r="I201" s="6">
-        <v>6462173.3020833302</v>
-      </c>
-      <c r="J201" s="5">
-        <v>527</v>
-      </c>
-      <c r="K201" s="7">
-        <v>59.643545084659998</v>
-      </c>
-      <c r="L201" s="3">
-        <v>7.85498046875</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C202" s="3">
-        <v>30.145365953445399</v>
-      </c>
-      <c r="D202" s="4">
-        <v>40.79</v>
-      </c>
-      <c r="E202" s="5">
-        <v>3</v>
-      </c>
-      <c r="F202" s="5">
-        <v>5</v>
-      </c>
-      <c r="G202" s="5">
-        <v>5</v>
-      </c>
-      <c r="H202" s="5">
-        <v>13</v>
-      </c>
-      <c r="I202" s="6">
-        <v>10125849.6666667</v>
-      </c>
-      <c r="J202" s="5">
-        <v>152</v>
-      </c>
-      <c r="K202" s="7">
-        <v>17.286941914660002</v>
-      </c>
-      <c r="L202" s="3">
-        <v>8.41162109375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C203" s="3">
-        <v>29.930251836776701</v>
-      </c>
-      <c r="D203" s="4">
-        <v>19.79</v>
-      </c>
-      <c r="E203" s="5">
-        <v>1</v>
-      </c>
-      <c r="F203" s="5">
-        <v>7</v>
-      </c>
-      <c r="G203" s="5">
-        <v>7</v>
-      </c>
-      <c r="H203" s="5">
-        <v>13</v>
-      </c>
-      <c r="I203" s="6">
-        <v>5606257.1354166698</v>
-      </c>
-      <c r="J203" s="5">
-        <v>374</v>
-      </c>
-      <c r="K203" s="7">
-        <v>39.698381404659997</v>
-      </c>
-      <c r="L203" s="3">
-        <v>7.48876953125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" s="3">
-        <v>29.644097924232501</v>
-      </c>
-      <c r="D204" s="4">
-        <v>16.72</v>
-      </c>
-      <c r="E204" s="5">
-        <v>1</v>
-      </c>
-      <c r="F204" s="5">
-        <v>4</v>
-      </c>
-      <c r="G204" s="5">
-        <v>4</v>
-      </c>
-      <c r="H204" s="5">
-        <v>10</v>
-      </c>
-      <c r="I204" s="6">
-        <v>4630738.03515625</v>
-      </c>
-      <c r="J204" s="5">
-        <v>335</v>
-      </c>
-      <c r="K204" s="7">
-        <v>36.044802984660002</v>
-      </c>
-      <c r="L204" s="3">
-        <v>9.27587890625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C205" s="3">
-        <v>29.5027176141739</v>
-      </c>
-      <c r="D205" s="4">
-        <v>12.67</v>
-      </c>
-      <c r="E205" s="5">
-        <v>1</v>
-      </c>
-      <c r="F205" s="5">
-        <v>5</v>
-      </c>
-      <c r="G205" s="5">
-        <v>8</v>
-      </c>
-      <c r="H205" s="5">
-        <v>12</v>
-      </c>
-      <c r="I205" s="6">
-        <v>7261321.4791666698</v>
-      </c>
-      <c r="J205" s="5">
-        <v>5090</v>
-      </c>
-      <c r="K205" s="7">
-        <v>555.279001784662</v>
-      </c>
-      <c r="L205" s="3">
-        <v>5.60498046875</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C206" s="3">
-        <v>28.751116037368799</v>
-      </c>
-      <c r="D206" s="4">
-        <v>9.18</v>
-      </c>
-      <c r="E206" s="5">
-        <v>1</v>
-      </c>
-      <c r="F206" s="5">
-        <v>5</v>
-      </c>
-      <c r="G206" s="5">
-        <v>5</v>
-      </c>
-      <c r="H206" s="5">
-        <v>11</v>
-      </c>
-      <c r="I206" s="6">
-        <v>6549883.3125</v>
-      </c>
-      <c r="J206" s="5">
-        <v>730</v>
-      </c>
-      <c r="K206" s="7">
-        <v>77.464318504660099</v>
-      </c>
-      <c r="L206" s="3">
-        <v>8.70458984375</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C207" s="3">
-        <v>28.5493466854095</v>
-      </c>
-      <c r="D207" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E207" s="5">
-        <v>1</v>
-      </c>
-      <c r="F207" s="5">
-        <v>4</v>
-      </c>
-      <c r="G207" s="5">
-        <v>4</v>
-      </c>
-      <c r="H207" s="5">
-        <v>9</v>
-      </c>
-      <c r="I207" s="6">
-        <v>5002425.265625</v>
-      </c>
-      <c r="J207" s="5">
-        <v>440</v>
-      </c>
-      <c r="K207" s="7">
-        <v>48.09126437466</v>
-      </c>
-      <c r="L207" s="3">
-        <v>5.08447265625</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C208" s="3">
-        <v>28.523274898529099</v>
-      </c>
-      <c r="D208" s="4">
-        <v>45.86</v>
-      </c>
-      <c r="E208" s="5">
-        <v>3</v>
-      </c>
-      <c r="F208" s="5">
-        <v>3</v>
-      </c>
-      <c r="G208" s="5">
-        <v>6</v>
-      </c>
-      <c r="H208" s="5">
-        <v>12</v>
-      </c>
-      <c r="I208" s="6">
-        <v>8722877.59375</v>
-      </c>
-      <c r="J208" s="5">
-        <v>181</v>
-      </c>
-      <c r="K208" s="7">
-        <v>20.587730944659999</v>
-      </c>
-      <c r="L208" s="3">
-        <v>7.43017578125</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C209" s="3">
-        <v>28.498577833175698</v>
-      </c>
-      <c r="D209" s="4">
-        <v>31.19</v>
-      </c>
-      <c r="E209" s="5">
-        <v>6</v>
-      </c>
-      <c r="F209" s="5">
-        <v>2</v>
-      </c>
-      <c r="G209" s="5">
-        <v>2</v>
-      </c>
-      <c r="H209" s="5">
-        <v>7</v>
-      </c>
-      <c r="I209" s="6">
-        <v>15144719.015625</v>
-      </c>
-      <c r="J209" s="5">
-        <v>109</v>
-      </c>
-      <c r="K209" s="7">
-        <v>11.767844974659999</v>
-      </c>
-      <c r="L209" s="3">
-        <v>8.48486328125</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C210" s="3">
-        <v>28.449375391006502</v>
-      </c>
-      <c r="D210" s="4">
-        <v>14.81</v>
-      </c>
-      <c r="E210" s="5">
-        <v>1</v>
-      </c>
-      <c r="F210" s="5">
-        <v>3</v>
-      </c>
-      <c r="G210" s="5">
-        <v>3</v>
-      </c>
-      <c r="H210" s="5">
-        <v>11</v>
-      </c>
-      <c r="I210" s="6">
-        <v>12979702.71875</v>
-      </c>
-      <c r="J210" s="5">
-        <v>216</v>
-      </c>
-      <c r="K210" s="7">
-        <v>24.407618904660001</v>
-      </c>
-      <c r="L210" s="3">
-        <v>7.48876953125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C211" s="3">
-        <v>27.950390100479101</v>
-      </c>
-      <c r="D211" s="4">
-        <v>25.47</v>
-      </c>
-      <c r="E211" s="5">
-        <v>2</v>
-      </c>
-      <c r="F211" s="5">
-        <v>8</v>
-      </c>
-      <c r="G211" s="5">
-        <v>8</v>
-      </c>
-      <c r="H211" s="5">
-        <v>19</v>
-      </c>
-      <c r="I211" s="6">
-        <v>11424451.4479167</v>
-      </c>
-      <c r="J211" s="5">
-        <v>475</v>
-      </c>
-      <c r="K211" s="7">
-        <v>51.868695014659998</v>
-      </c>
-      <c r="L211" s="3">
-        <v>8.06005859375</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C212" s="3">
-        <v>27.882760524749798</v>
-      </c>
-      <c r="D212" s="4">
-        <v>15.37</v>
-      </c>
-      <c r="E212" s="5">
-        <v>1</v>
-      </c>
-      <c r="F212" s="5">
-        <v>5</v>
-      </c>
-      <c r="G212" s="5">
-        <v>5</v>
-      </c>
-      <c r="H212" s="5">
-        <v>10</v>
-      </c>
-      <c r="I212" s="6">
-        <v>7972354</v>
-      </c>
-      <c r="J212" s="5">
-        <v>449</v>
-      </c>
-      <c r="K212" s="7">
-        <v>52.46100815466</v>
-      </c>
-      <c r="L212" s="3">
-        <v>6.26513671875</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C213" s="3">
-        <v>27.8706617355347</v>
-      </c>
-      <c r="D213" s="4">
-        <v>20.59</v>
-      </c>
-      <c r="E213" s="5">
-        <v>4</v>
-      </c>
-      <c r="F213" s="5">
-        <v>7</v>
-      </c>
-      <c r="G213" s="5">
-        <v>7</v>
-      </c>
-      <c r="H213" s="5">
-        <v>17</v>
-      </c>
-      <c r="I213" s="6">
-        <v>9143188.828125</v>
-      </c>
-      <c r="J213" s="5">
-        <v>306</v>
-      </c>
-      <c r="K213" s="7">
-        <v>33.64954055466</v>
-      </c>
-      <c r="L213" s="3">
-        <v>5.08447265625</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C214" s="3">
-        <v>27.6304173469543</v>
-      </c>
-      <c r="D214" s="4">
-        <v>30.88</v>
-      </c>
-      <c r="E214" s="5">
-        <v>1</v>
-      </c>
-      <c r="F214" s="5">
-        <v>7</v>
-      </c>
-      <c r="G214" s="5">
-        <v>7</v>
-      </c>
-      <c r="H214" s="5">
-        <v>12</v>
-      </c>
-      <c r="I214" s="6">
-        <v>5390665.8359375</v>
-      </c>
-      <c r="J214" s="5">
-        <v>272</v>
-      </c>
-      <c r="K214" s="7">
-        <v>29.78590395466</v>
-      </c>
-      <c r="L214" s="3">
-        <v>5.75732421875</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C215" s="3">
-        <v>27.569836735725399</v>
-      </c>
-      <c r="D215" s="4">
-        <v>5.76</v>
-      </c>
-      <c r="E215" s="5">
-        <v>1</v>
-      </c>
-      <c r="F215" s="5">
-        <v>4</v>
-      </c>
-      <c r="G215" s="5">
-        <v>4</v>
-      </c>
-      <c r="H215" s="5">
-        <v>15</v>
-      </c>
-      <c r="I215" s="6">
-        <v>7493712.7083333302</v>
-      </c>
-      <c r="J215" s="5">
-        <v>798</v>
-      </c>
-      <c r="K215" s="7">
-        <v>88.357014534659996</v>
-      </c>
-      <c r="L215" s="3">
-        <v>5.38916015625</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C216" s="3">
-        <v>27.419869661331202</v>
-      </c>
-      <c r="D216" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="E216" s="5">
-        <v>21</v>
-      </c>
-      <c r="F216" s="5">
-        <v>1</v>
-      </c>
-      <c r="G216" s="5">
-        <v>3</v>
-      </c>
-      <c r="H216" s="5">
-        <v>12</v>
-      </c>
-      <c r="I216" s="6">
-        <v>17279060.291666701</v>
-      </c>
-      <c r="J216" s="5">
-        <v>200</v>
-      </c>
-      <c r="K216" s="7">
-        <v>22.52659012466</v>
-      </c>
-      <c r="L216" s="3">
-        <v>8.38232421875</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C217" s="3">
-        <v>26.792331933975198</v>
-      </c>
-      <c r="D217" s="4">
-        <v>29.82</v>
-      </c>
-      <c r="E217" s="5">
-        <v>3</v>
-      </c>
-      <c r="F217" s="5">
-        <v>7</v>
-      </c>
-      <c r="G217" s="5">
-        <v>7</v>
-      </c>
-      <c r="H217" s="5">
-        <v>15</v>
-      </c>
-      <c r="I217" s="6">
-        <v>8596581.2356770802</v>
-      </c>
-      <c r="J217" s="5">
-        <v>218</v>
-      </c>
-      <c r="K217" s="7">
-        <v>24.47348652466</v>
-      </c>
-      <c r="L217" s="3">
-        <v>5.93505859375</v>
       </c>
     </row>
   </sheetData>
